--- a/d/Preliminary Division Workshops+instruments-2.xlsx
+++ b/d/Preliminary Division Workshops+instruments-2.xlsx
@@ -1210,7 +1210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1284,6 +1284,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1833,22 +1839,22 @@
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="10" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="11" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="12" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="12" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="13" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="12" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="13" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="13" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="14" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="10" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
@@ -1857,88 +1863,88 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="14" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="14" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="14" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="14" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="14" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="14" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="14" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="16" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="16" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="16" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="16" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="16" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="16" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="16" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="16" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="10" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="16" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="10" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="13" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="12" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="13" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="12" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="14" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="14" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="14" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="13" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="16" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="12" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="11" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="12" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="13" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="12" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="13" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="10" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
@@ -1947,19 +1953,19 @@
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="10" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="11" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="12" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="16" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="15" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="12" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="16" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="16" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="13" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="10" applyFont="1" fillId="20" applyFill="1" applyAlignment="1">
@@ -2287,7 +2293,7 @@
     <col min="12" max="12" style="34" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27.75">
       <c r="A1" s="42" t="s">
         <v>283</v>
       </c>
@@ -2317,7 +2323,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="46"/>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -2331,7 +2337,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="47" t="s">
         <v>284</v>
       </c>
@@ -2355,7 +2361,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -2369,7 +2375,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="50" t="s">
         <v>289</v>
       </c>
@@ -2393,7 +2399,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="51"/>
       <c r="B7" s="52"/>
       <c r="C7" s="51"/>
@@ -2407,7 +2413,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="28">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="53" t="s">
         <v>290</v>
       </c>
@@ -2541,7 +2547,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="59" t="s">
         <v>303</v>
       </c>
@@ -2581,7 +2587,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="46"/>
       <c r="B16" s="61"/>
       <c r="C16" s="46"/>
@@ -2595,7 +2601,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="62" t="s">
         <v>305</v>
       </c>
